--- a/test/fixture/snapshot/cli/sort-format/basic/premodern/premodern-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/basic/premodern/premodern-rare.xlsx
@@ -51,7 +51,7 @@
     <comment ref="C4" authorId="0">
       <text>
         <r>
-          <t>Group: external</t>
+          <t>Group: decks</t>
         </r>
       </text>
     </comment>
@@ -130,13 +130,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <t>Group: external</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
@@ -162,6 +155,13 @@
         </r>
       </text>
     </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <t>Group: decks</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D8" authorId="0">
       <text>
         <r>
@@ -174,7 +174,8 @@
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t>Regenerate target creature. You gain control of that creature if it regenerates this way.</t>
+          <t xml:space="preserve">Until end of turn, target player can't cast instant or sorcery spells, and that player can't activate abilities that aren't mana abilities.
+Draw a card.</t>
         </r>
       </text>
     </comment>
@@ -182,11 +183,35 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
+➤ 1 white</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <t>Regenerate target creature. You gain control of that creature if it regenerates this way.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 1 generic
 ➤ 2 white</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -194,14 +219,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <t>Each player chooses from among the permanents they control an artifact, a creature, an enchantment, and a land, then sacrifices the rest.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I10" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
@@ -1007,7 +1032,7 @@
     <comment ref="C7" authorId="0">
       <text>
         <r>
-          <t>Group: external</t>
+          <t>Group: decks</t>
         </r>
       </text>
     </comment>
@@ -1241,7 +1266,7 @@
     <comment ref="C7" authorId="0">
       <text>
         <r>
-          <t>Group: external</t>
+          <t>Group: decks</t>
         </r>
       </text>
     </comment>
@@ -1586,7 +1611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="388">
   <si>
     <t>Premodern (Rare) - White</t>
   </si>
@@ -1694,6 +1719,9 @@
   </si>
   <si>
     <t>Abeyance</t>
+  </si>
+  <si>
+    <t>premodern-coalesce</t>
   </si>
   <si>
     <t>Instant</t>
@@ -2799,7 +2827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3D8F2"/>
+        <fgColor rgb="FFD6F1F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -2843,10 +2871,10 @@
         <color rgb="FF999999"/>
       </right>
       <top style="thin">
-        <color rgb="FF8A6BB8"/>
+        <color rgb="FF4FA3B8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF8A6BB8"/>
+        <color rgb="FF4FA3B8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2919,6 +2947,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2929,12 +2963,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3282,7 +3310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3293,7 +3321,8 @@
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -3506,25 +3535,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="13">
         <v>2</v>
@@ -3536,159 +3565,187 @@
         <v>23</v>
       </c>
       <c r="M6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="N7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="H9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="M9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="15">
-        <v>3</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="D10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="17">
-        <v>4</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="17" t="s">
+      <c r="M10" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -6874,6 +6931,22 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
+    <row r="210" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
@@ -6886,10 +6959,11 @@
     <hyperlink ref="N7" r:id="rId5"/>
     <hyperlink ref="N8" r:id="rId6"/>
     <hyperlink ref="N9" r:id="rId7"/>
+    <hyperlink ref="N10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -6920,7 +6994,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6982,7 +7056,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -6994,7 +7068,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>19</v>
@@ -7003,74 +7077,74 @@
         <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" s="7">
         <v>4</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="17">
+        <v>7</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="15">
-        <v>7</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="L4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>70</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -7082,83 +7156,83 @@
         <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" s="7">
         <v>6</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="17">
         <v>7</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>84</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -7173,80 +7247,80 @@
         <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" s="11">
         <v>2</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="15">
+      <c r="I8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="17">
         <v>3</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="15" t="s">
+      <c r="K8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>94</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -7261,119 +7335,119 @@
         <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" s="7">
         <v>3</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="H10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="17">
         <v>2</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="K10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>104</v>
       </c>
+      <c r="N10" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="19">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="D11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="G11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="19">
         <v>3</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="17" t="s">
+      <c r="K11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>108</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10624,7 +10698,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10686,7 +10760,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -10698,7 +10772,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>19</v>
@@ -10707,74 +10781,74 @@
         <v>20</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J3" s="7">
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="17">
+        <v>5</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="15">
-        <v>5</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="L4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>121</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -10786,83 +10860,83 @@
         <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J5" s="7">
         <v>4</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="15">
+      <c r="H6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="17">
         <v>3</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>134</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -10874,39 +10948,39 @@
         <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J7" s="7">
         <v>3</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -10921,36 +10995,36 @@
         <v>28</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J8" s="13">
         <v>3</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -10965,80 +11039,80 @@
         <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J9" s="7">
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="H10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="17">
         <v>3</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="K10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>156</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -11053,80 +11127,80 @@
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J11" s="7">
         <v>4</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="G12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="17">
         <v>4</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="N12" s="15" t="s">
+      <c r="K12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>165</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" s="11">
         <v>2</v>
@@ -11135,86 +11209,86 @@
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="D14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="G14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="15">
+      <c r="I14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="17">
         <v>4</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" s="15" t="s">
+      <c r="K14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>175</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -11223,81 +11297,81 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="D16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="J16" s="19">
+      <c r="I16" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="15">
         <v>3</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N16" s="19" t="s">
+      <c r="K16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="15" t="s">
         <v>186</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14553,7 +14627,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14615,7 +14689,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -14627,122 +14701,122 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J3" s="7">
         <v>4</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="J5" s="19">
+        <v>4</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J4" s="15">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="17">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="17">
-        <v>4</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>208</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17986,7 +18060,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18048,7 +18122,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -18060,79 +18134,79 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J3" s="7">
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="17" t="s">
         <v>224</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -18144,39 +18218,39 @@
         <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J5" s="7">
         <v>2</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B6" s="13">
         <v>3</v>
@@ -18191,36 +18265,36 @@
         <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J6" s="13">
         <v>4</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -18235,80 +18309,80 @@
         <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J7" s="9">
         <v>4</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="15">
+      <c r="I8" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="17">
         <v>4</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N8" s="15" t="s">
+      <c r="K8" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>243</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -18323,80 +18397,80 @@
         <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="G10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J10" s="15">
+      <c r="I10" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="17">
         <v>3</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="K10" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>255</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -18411,31 +18485,31 @@
         <v>28</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21686,7 +21760,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21748,7 +21822,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -21760,39 +21834,39 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J3" s="7">
         <v>4</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -21801,42 +21875,42 @@
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J4" s="13">
         <v>5</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -21851,36 +21925,36 @@
         <v>28</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J5" s="11">
         <v>3</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
@@ -21889,42 +21963,42 @@
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J6" s="13">
         <v>3</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -21933,37 +22007,37 @@
         <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J7" s="9">
         <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25210,7 +25284,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25272,7 +25346,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -25281,10 +25355,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>30</v>
@@ -25293,74 +25367,74 @@
         <v>31</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J3" s="7">
         <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="J4" s="15">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="L4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>303</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -25369,125 +25443,125 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J5" s="7">
         <v>2</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="J6" s="15">
+      <c r="I6" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>314</v>
       </c>
+      <c r="N6" s="17" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="J7" s="17">
+      <c r="I7" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="19">
         <v>7</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="K7" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>321</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28735,7 +28809,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -28797,7 +28871,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -28806,86 +28880,86 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="H4" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="17">
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="K4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="17" t="s">
         <v>334</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -28894,86 +28968,86 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="17">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>346</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -28982,86 +29056,86 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="G8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" s="17">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="N8" s="15" t="s">
+      <c r="M8" s="17" t="s">
         <v>357</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B9" s="7">
         <v>4</v>
@@ -29070,86 +29144,86 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="G10" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="J10" s="17">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="M10" s="15" t="s">
+      <c r="K10" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="17" t="s">
         <v>366</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -29158,125 +29232,125 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="H12" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="17">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="N12" s="15" t="s">
+      <c r="K12" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>378</v>
       </c>
+      <c r="N12" s="17" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="A13" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" s="19">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="H13" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="19">
         <v>0</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="L13" s="17" t="s">
+      <c r="K13" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="N13" s="17" t="s">
+      <c r="M13" s="19" t="s">
         <v>386</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
